--- a/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
+++ b/InputData/trans/AVLo/Avg Vehicle Loading.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\AVLo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\trans\AVLo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B446D3AE-B87D-4E62-AC29-BC99054FBCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE2088D-E54A-4460-8D4F-1648AA57E0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1467,7 +1467,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Rail shipments 93-97"/>
@@ -1548,9 +1548,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1588,9 +1588,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1623,26 +1623,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1675,26 +1658,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1870,14 +1836,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="2" width="85.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="2" max="2" width="85.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2145,15 +2111,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="73.6328125" customWidth="1"/>
+    <col min="1" max="1" width="73.59765625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="102.26953125" customWidth="1"/>
+    <col min="3" max="3" width="102.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2672,19 +2638,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:BE7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:AK3"/>
+    <sheetView topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="BB10" sqref="BB10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="13.06640625" customWidth="1"/>
+    <col min="2" max="2" width="8.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="43.5">
+    <row r="1" spans="1:57" ht="42.75">
       <c r="A1" s="16" t="s">
         <v>111</v>
       </c>
@@ -2796,8 +2762,68 @@
       <c r="AK1" s="1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:37">
+      <c r="AL1" s="5">
+        <v>2051</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>2053</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AP1" s="5">
+        <v>2055</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AR1" s="5">
+        <v>2057</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AT1" s="5">
+        <v>2059</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>2061</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>2063</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>2065</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BB1" s="5">
+        <v>2067</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BD1" s="5">
+        <v>2069</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:57">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2809,7 +2835,7 @@
         <v>1.67</v>
       </c>
       <c r="D2" s="7">
-        <f t="shared" ref="D2:AK7" si="0">$B2</f>
+        <f t="shared" ref="D2:AL7" si="0">$B2</f>
         <v>1.67</v>
       </c>
       <c r="E2" s="7">
@@ -2944,8 +2970,88 @@
         <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-    </row>
-    <row r="3" spans="1:37">
+      <c r="AL2" s="7">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="AM2" s="7">
+        <f t="shared" ref="AL2:BE7" si="1">$B2</f>
+        <v>1.67</v>
+      </c>
+      <c r="AN2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AO2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AP2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AQ2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AR2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AS2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AT2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AU2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AV2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AW2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AX2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AY2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="AZ2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="BA2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="BB2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="BC2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="BD2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+      <c r="BE2" s="7">
+        <f t="shared" si="1"/>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:57">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -2954,67 +3060,67 @@
         <v>21.196137258578663</v>
       </c>
       <c r="C3" s="7">
-        <f t="shared" ref="C3:R7" si="1">$B3</f>
+        <f t="shared" ref="C3:R7" si="2">$B3</f>
         <v>21.196137258578663</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="M3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="N3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="O3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="P3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="Q3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="R3" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.196137258578663</v>
       </c>
       <c r="S3" s="7">
@@ -3093,8 +3199,88 @@
         <f t="shared" si="0"/>
         <v>21.196137258578663</v>
       </c>
-    </row>
-    <row r="4" spans="1:37">
+      <c r="AL3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AM3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AN3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AO3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AP3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AQ3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AR3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AS3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AT3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AU3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AV3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AW3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AX3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AY3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="AZ3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="BA3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="BB3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="BC3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="BD3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+      <c r="BE3" s="7">
+        <f t="shared" si="1"/>
+        <v>21.196137258578663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:57">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -3103,7 +3289,7 @@
         <v>111.39416306433705</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>111.39416306433705</v>
       </c>
       <c r="D4" s="7">
@@ -3242,8 +3428,88 @@
         <f t="shared" si="0"/>
         <v>111.39416306433705</v>
       </c>
-    </row>
-    <row r="5" spans="1:37">
+      <c r="AL4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AM4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AN4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AO4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AP4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AQ4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AR4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AS4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AT4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AU4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AV4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AW4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AX4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AY4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="AZ4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="BA4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="BB4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="BC4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="BD4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+      <c r="BE4" s="7">
+        <f t="shared" si="1"/>
+        <v>111.39416306433705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:57">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -3252,7 +3518,7 @@
         <v>486.56731685074101</v>
       </c>
       <c r="C5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>486.56731685074101</v>
       </c>
       <c r="D5" s="7">
@@ -3391,8 +3657,88 @@
         <f t="shared" si="0"/>
         <v>486.56731685074101</v>
       </c>
-    </row>
-    <row r="6" spans="1:37">
+      <c r="AL5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AM5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AN5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AO5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AP5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AQ5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AR5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AS5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AT5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AU5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AV5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AW5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AX5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AY5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="AZ5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="BA5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="BB5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="BC5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="BD5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+      <c r="BE5" s="7">
+        <f t="shared" si="1"/>
+        <v>486.56731685074101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:57">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -3400,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="D6" s="7">
@@ -3539,8 +3885,88 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:37">
+      <c r="AL6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AM6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AN6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AO6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AP6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AR6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AS6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AT6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AU6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AV6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AW6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AX6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AY6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BA6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BB6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BC6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BD6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="BE6" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:57">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -3549,7 +3975,7 @@
         <v>1.2700756740871355</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2700756740871355</v>
       </c>
       <c r="D7" s="7">
@@ -3686,6 +4112,86 @@
       </c>
       <c r="AK7" s="7">
         <f t="shared" si="0"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AL7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AM7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AN7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AO7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AP7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AQ7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AR7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AS7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AT7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AU7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AV7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AW7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AX7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AY7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="AZ7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="BA7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="BB7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="BC7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="BD7" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2700756740871355</v>
+      </c>
+      <c r="BE7" s="7">
+        <f t="shared" si="1"/>
         <v>1.2700756740871355</v>
       </c>
     </row>
@@ -3699,16 +4205,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="BD9" sqref="BD9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" ht="43.5">
+    <row r="1" spans="1:56" s="1" customFormat="1" ht="42.75">
       <c r="A1" s="16" t="s">
         <v>112</v>
       </c>
@@ -3817,8 +4325,68 @@
       <c r="AJ1" s="1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="1">
+        <v>2051</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>2052</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>2053</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>2054</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>2055</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>2056</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>2057</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>2058</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>2059</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>2060</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>2061</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>2062</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>2063</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>2064</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>2065</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>2066</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>2067</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>2068</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>2069</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -3890,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="D2:AJ7" si="1">$B2</f>
+        <f t="shared" ref="D2:AK7" si="1">$B2</f>
         <v>1</v>
       </c>
       <c r="T2">
@@ -3961,8 +4529,88 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:36">
+      <c r="AK2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" ref="AK2:BD7" si="2">$B2</f>
+        <v>1</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AR2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AS2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AV2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AW2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AX2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AY2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AZ2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BA2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BB2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BC2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BD2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -4105,8 +4753,88 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:36">
+      <c r="AK3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AL3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AM3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AN3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AR3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AS3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AT3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AU3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AV3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AW3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AX3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AY3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="AZ3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="BA3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="BB3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="BC3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="BD3">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -4250,8 +4978,88 @@
         <f t="shared" si="1"/>
         <v>41.989116133258747</v>
       </c>
-    </row>
-    <row r="5" spans="1:36">
+      <c r="AK4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AL4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AM4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AN4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AO4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AP4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AQ4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AR4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AS4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AT4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AU4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AV4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AW4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AX4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AY4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="AZ4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="BA4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="BB4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="BC4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+      <c r="BD4" s="6">
+        <f t="shared" si="2"/>
+        <v>41.989116133258747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -4395,8 +5203,88 @@
         <f t="shared" si="1"/>
         <v>3512.35916421195</v>
       </c>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AK5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AL5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AM5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AN5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AO5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AP5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AQ5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AR5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AS5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AT5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AU5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AV5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AW5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AX5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AY5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="AZ5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="BA5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="BB5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="BC5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+      <c r="BD5" s="6">
+        <f t="shared" si="2"/>
+        <v>3512.35916421195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -4540,8 +5428,88 @@
         <f t="shared" si="1"/>
         <v>1974.4736422180429</v>
       </c>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AL6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AM6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AN6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AO6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AP6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AQ6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AR6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AS6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AT6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AU6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AV6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AW6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AX6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AY6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="AZ6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="BA6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="BB6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="BC6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+      <c r="BD6" s="6">
+        <f t="shared" si="2"/>
+        <v>1974.4736422180429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4682,6 +5650,86 @@
       </c>
       <c r="AJ7">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
